--- a/src/data/starbound_data.xlsx
+++ b/src/data/starbound_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\campaign_dashboard\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FFA2BE-8A25-4E77-8FF8-11A5EF2F81B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBA7580-7A54-44CD-B403-95BA7D76E162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{63028853-D2A9-47E4-8FD4-99117B4633E5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10650" windowHeight="15585" activeTab="1" xr2:uid="{63028853-D2A9-47E4-8FD4-99117B4633E5}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_combat_stats" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="50">
   <si>
     <t>session</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Continued from 41-1. Thorns vs Plague Maiden. Evie bloodlusted at end.</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>Sleight of Hand</t>
   </si>
 </sst>
 </file>
@@ -1027,17 +1036,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DACA06-1040-464F-9CB0-D287674473A4}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4341,6 +4350,422 @@
       </c>
       <c r="H127">
         <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128">
+        <v>15</v>
+      </c>
+      <c r="H128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129">
+        <v>43</v>
+      </c>
+      <c r="C129" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129">
+        <v>15</v>
+      </c>
+      <c r="H129">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131">
+        <v>18</v>
+      </c>
+      <c r="H131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>43</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134">
+        <v>6</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>43</v>
+      </c>
+      <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135">
+        <v>20</v>
+      </c>
+      <c r="H135">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <v>43</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138">
+        <v>43</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138">
+        <v>18</v>
+      </c>
+      <c r="H138">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139">
+        <v>43</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140">
+        <v>43</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140">
+        <v>10</v>
+      </c>
+      <c r="H140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>43</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142">
+        <v>43</v>
+      </c>
+      <c r="C142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142">
+        <v>18</v>
+      </c>
+      <c r="H142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>43</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143">
+        <v>12</v>
+      </c>
+      <c r="H143">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
